--- a/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,0</t>
+          <t>-6,55; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -0,72</t>
+          <t>-8,91; -0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,73</t>
+          <t>-1,97; 4,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,06</t>
+          <t>-7,65; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 202,06</t>
+          <t>-88,47; 247,3</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,42</t>
+          <t>-2,7; 0,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,72</t>
+          <t>-1,32; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,04</t>
+          <t>-1,13; 1,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,4</t>
+          <t>-1,11; 2,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 41,39</t>
+          <t>-83,09; 38,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 170,3</t>
+          <t>-43,24; 149,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 408,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 193,3</t>
+          <t>-46,67; 210,03</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,26</t>
+          <t>-0,93; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,76</t>
+          <t>-0,87; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,22</t>
+          <t>-0,63; 1,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,09</t>
+          <t>-0,73; 2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 150,18</t>
+          <t>-49,6; 162,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 176,81</t>
+          <t>-41,99; 183,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 271,98</t>
+          <t>-49,67; 299,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 140,78</t>
+          <t>-23,16; 145,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,64</t>
+          <t>-0,79; 1,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,74</t>
+          <t>-0,83; 1,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,88</t>
+          <t>-1,12; 0,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 41,51</t>
+          <t>0,26; 41,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 295,51</t>
+          <t>-51,66; 354,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,57; 317,36</t>
+          <t>-64,69; 323,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 271,93</t>
+          <t>-76,75; 300,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 1324,44</t>
+          <t>4,48; 1850,44</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,84</t>
+          <t>-0,61; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,29</t>
+          <t>-0,27; 2,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,77</t>
+          <t>-1,21; 0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,99</t>
+          <t>-0,2; 1,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 216,07</t>
+          <t>-35,25; 206,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 234,4</t>
+          <t>-17,5; 215,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 104,97</t>
+          <t>-65,06; 114,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 176,88</t>
+          <t>-10,99; 173,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,67</t>
+          <t>-0,54; 0,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,16</t>
+          <t>-0,2; 1,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,58</t>
+          <t>-0,43; 0,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 13,03</t>
+          <t>0,46; 12,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 55,16</t>
+          <t>-28,89; 50,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 84,48</t>
+          <t>-11,01; 86,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 73,43</t>
+          <t>-34,58; 78,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,1; 568,09</t>
+          <t>18,03; 597,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-46,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>141,63%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,98%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 0,0</t>
+          <t>-2,46; 0,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,73</t>
+          <t>-1,62; 1,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,61</t>
+          <t>-0,81; 1,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 2,12</t>
+          <t>-1,49; 1,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,93; 24,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,93; 104,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,45; 313,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-88,47; 247,3</t>
+          <t>-49,97; 108,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,39%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>63,01%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,43</t>
+          <t>-0,88; 1,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,55</t>
+          <t>-0,87; 1,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,02</t>
+          <t>-0,63; 1,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,31</t>
+          <t>-0,21; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 38,97</t>
+          <t>-45,37; 174,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 149,76</t>
+          <t>-41,99; 183,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,67; 299,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 210,03</t>
+          <t>-9,73; 253,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,32 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>631,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,32</t>
+          <t>-0,79; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,69</t>
+          <t>-0,83; 1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,33</t>
+          <t>-1,12; 0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,16</t>
+          <t>0,01; 57,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 162,46</t>
+          <t>-51,66; 354,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 183,84</t>
+          <t>-64,69; 323,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 299,58</t>
+          <t>-76,75; 300,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 145,95</t>
+          <t>1,76; 2730,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-14,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>347,04%</t>
+          <t>40,41%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,81</t>
+          <t>-0,61; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,66</t>
+          <t>-0,27; 2,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,89</t>
+          <t>-1,21; 0,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 41,97</t>
+          <t>-0,45; 1,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 354,75</t>
+          <t>-35,25; 206,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 323,41</t>
+          <t>-17,5; 215,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 300,74</t>
+          <t>-65,06; 114,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 1850,44</t>
+          <t>-21,64; 152,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>273,33%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,75</t>
+          <t>-0,48; 0,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,39</t>
+          <t>-0,2; 1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,74</t>
+          <t>-0,43; 0,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,97</t>
+          <t>0,48; 22,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 206,61</t>
+          <t>-26,27; 57,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 215,39</t>
+          <t>-11,01; 86,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 114,02</t>
+          <t>-34,58; 78,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 173,24</t>
+          <t>18,25; 1143,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>145,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 0,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 1,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 0,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 12,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-28,89; 50,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-11,01; 86,81</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-34,58; 78,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>18,03; 597,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,23</t>
+          <t>-2,34; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,92</t>
+          <t>-1,6; 1,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,17</t>
+          <t>-0,84; 1,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,45</t>
+          <t>-1,6; 1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,93; 24,48</t>
+          <t>-77,69; 26,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 104,93</t>
+          <t>-47,86; 119,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 313,06</t>
+          <t>-72,18; 310,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 108,73</t>
+          <t>-53,32; 109,99</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,4</t>
+          <t>-0,96; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,69</t>
+          <t>-0,74; 1,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,33</t>
+          <t>-0,71; 1,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,74</t>
+          <t>-0,17; 2,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 174,02</t>
+          <t>-45,72; 153,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 183,84</t>
+          <t>-36,54; 179,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 299,58</t>
+          <t>-55,4; 244,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 253,85</t>
+          <t>-6,66; 286,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,81</t>
+          <t>-0,78; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,66</t>
+          <t>-0,92; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,89</t>
+          <t>-1,26; 0,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 57,62</t>
+          <t>0,2; 53,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 354,75</t>
+          <t>-54,01; 328,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 323,41</t>
+          <t>-65,56; 301,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 300,74</t>
+          <t>-78,85; 247,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2730,22</t>
+          <t>4,89; 2136,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,75</t>
+          <t>-0,53; 1,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,39</t>
+          <t>-0,37; 2,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,74</t>
+          <t>-1,28; 0,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,78</t>
+          <t>-0,5; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 206,61</t>
+          <t>-30,59; 180,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 215,39</t>
+          <t>-19,02; 220,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 114,02</t>
+          <t>-68,27; 119,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 152,5</t>
+          <t>-21,95; 148,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,73</t>
+          <t>-0,57; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,15</t>
+          <t>-0,23; 1,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,56</t>
+          <t>-0,44; 0,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,25</t>
+          <t>0,46; 23,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 57,48</t>
+          <t>-28,32; 56,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 86,81</t>
+          <t>-12,01; 80,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 78,41</t>
+          <t>-35,34; 73,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,25; 1143,88</t>
+          <t>19,06; 1225,76</t>
         </is>
       </c>
     </row>
